--- a/data/Bulletin/CEPACARE_Bulletin.xlsx
+++ b/data/Bulletin/CEPACARE_Bulletin.xlsx
@@ -815,7 +815,7 @@
       <c r="I12" s="36" t="n"/>
       <c r="J12" s="36" t="n"/>
       <c r="K12" s="37" t="n">
-        <v>12.78</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="13" ht="24.45" customHeight="1" s="25">
@@ -1095,7 +1095,7 @@
       <c r="I29" s="36" t="n"/>
       <c r="J29" s="36" t="n"/>
       <c r="K29" s="37" t="n">
-        <v>10.79</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="30" ht="24.45" customHeight="1" s="25">
@@ -1329,7 +1329,7 @@
       <c r="I45" s="36" t="n"/>
       <c r="J45" s="36" t="n"/>
       <c r="K45" s="37" t="n">
-        <v>7.5</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="46" ht="24.45" customHeight="1" s="25">
@@ -1551,7 +1551,7 @@
       <c r="I60" s="28" t="n"/>
       <c r="J60" s="28" t="n"/>
       <c r="K60" s="28" t="n">
-        <v>10.36</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="61" ht="24.45" customHeight="1" s="25">
@@ -1656,29 +1656,29 @@
     <row r="78" ht="12.8" customHeight="1" s="25"/>
     <row r="80">
       <c r="K80" t="n">
-        <v>12.21</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="83" ht="12.8" customHeight="1" s="25"/>
     <row r="84" ht="12.8" customHeight="1" s="25"/>
     <row r="90">
       <c r="K90" t="n">
-        <v>11.32</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="100">
       <c r="K100" t="n">
-        <v>12.79</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="110">
       <c r="K110" t="n">
-        <v>12.11</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="120">
       <c r="K120" t="n">
-        <v>11.23</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bulletin/CEPACARE_Bulletin.xlsx
+++ b/data/Bulletin/CEPACARE_Bulletin.xlsx
@@ -133,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -225,6 +225,13 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -371,7 +378,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -495,7 +502,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -810,10 +817,10 @@
   <dimension ref="D1:K175"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="E119" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G144" activeCellId="0" sqref="G144"/>
+      <selection pane="topLeft" activeCell="G145" activeCellId="0" sqref="G145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.625" defaultRowHeight="14.65" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="14.65" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.51" customWidth="1" style="47" min="1" max="2"/>
     <col width="20.37" customWidth="1" style="47" min="3" max="3"/>
@@ -2543,14 +2550,10 @@
     <row r="144" ht="24.45" customHeight="1" s="48">
       <c r="F144" s="86" t="inlineStr">
         <is>
-          <t>Decision du jury :</t>
-        </is>
-      </c>
-      <c r="G144" s="87" t="inlineStr">
-        <is>
-          <t>Redoublement</t>
-        </is>
-      </c>
+          <t>Décision du jury: Redoublement</t>
+        </is>
+      </c>
+      <c r="G144" s="87" t="n"/>
     </row>
     <row r="145" ht="24.45" customHeight="1" s="48">
       <c r="F145" s="51" t="n"/>
